--- a/data/20201009_WLO_L2_D2_OD600.xlsx
+++ b/data/20201009_WLO_L2_D2_OD600.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danschw\github\ReductionBacterialGrowth\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E1DAB4-D6FB-40A4-9211-D09804145C57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1278F002-D712-46B3-9163-5D22AD743C23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24120" yWindow="5685" windowWidth="24240" windowHeight="13140" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plate 1 - Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,6 @@
     <sheet name="Plate 5 - Sheet1" sheetId="5" r:id="rId5"/>
     <sheet name="Plate 6 - Sheet1" sheetId="6" r:id="rId6"/>
     <sheet name="Plate 7 - Sheet1" sheetId="7" r:id="rId7"/>
-    <sheet name="plates" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="MethodPointer1">180859488</definedName>
@@ -42,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="45">
   <si>
     <t>Software Version</t>
   </si>
@@ -177,12 +176,6 @@
   </si>
   <si>
     <t>Plate 7</t>
-  </si>
-  <si>
-    <t>Plate reads for WLO-L2_D2. Plate 1: Dilution Read</t>
-  </si>
-  <si>
-    <t>Plate 2: Plate 1 T0; Plate 3: Plate 2 T0; Plate 4: Plate 1 T4h; Plate 5: Plate 2 T4h; Plate 6: Plate 1 T4h-vortex; Plate 7: Plate 2 T4h-vortex</t>
   </si>
 </sst>
 </file>
@@ -358,7 +351,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -458,7 +451,6 @@
     <xf numFmtId="0" fontId="3" fillId="17" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -804,13 +796,13 @@
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -818,7 +810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -826,7 +818,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -834,7 +826,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -842,7 +834,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -850,7 +842,7 @@
         <v>44112</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -858,7 +850,7 @@
         <v>0.46342592592592591</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -866,7 +858,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -874,7 +866,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -882,13 +874,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="4"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -896,7 +888,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -904,12 +896,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -917,33 +909,33 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B23" s="4"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -951,7 +943,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B26" s="5"/>
       <c r="C26" s="6">
         <v>1</v>
@@ -990,7 +982,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B27" s="6" t="s">
         <v>30</v>
       </c>
@@ -1034,7 +1026,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B28" s="6" t="s">
         <v>32</v>
       </c>
@@ -1078,7 +1070,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B29" s="6" t="s">
         <v>33</v>
       </c>
@@ -1102,7 +1094,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B30" s="6" t="s">
         <v>34</v>
       </c>
@@ -1122,7 +1114,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B31" s="6" t="s">
         <v>35</v>
       </c>
@@ -1142,7 +1134,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B32" s="6" t="s">
         <v>36</v>
       </c>
@@ -1162,7 +1154,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B33" s="6" t="s">
         <v>37</v>
       </c>
@@ -1182,7 +1174,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B34" s="6" t="s">
         <v>38</v>
       </c>
@@ -1218,14 +1210,14 @@
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" style="15" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" style="15" customWidth="1"/>
-    <col min="3" max="16384" width="9.109375" style="15"/>
+    <col min="1" max="1" width="20.7109375" style="15" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" style="15" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
@@ -1233,7 +1225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>2</v>
       </c>
@@ -1241,7 +1233,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
@@ -1249,7 +1241,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>6</v>
       </c>
@@ -1257,7 +1249,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
         <v>8</v>
       </c>
@@ -1265,7 +1257,7 @@
         <v>44112</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
         <v>9</v>
       </c>
@@ -1273,7 +1265,7 @@
         <v>0.51348379629629626</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
         <v>10</v>
       </c>
@@ -1281,7 +1273,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
         <v>12</v>
       </c>
@@ -1289,7 +1281,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
         <v>14</v>
       </c>
@@ -1297,13 +1289,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="19"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
         <v>17</v>
       </c>
@@ -1311,7 +1303,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
         <v>19</v>
       </c>
@@ -1319,12 +1311,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
         <v>22</v>
       </c>
@@ -1332,33 +1324,33 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B18" s="15" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B19" s="15" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B20" s="15" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B21" s="15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="18" t="s">
         <v>28</v>
       </c>
       <c r="B23" s="19"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="15" t="s">
         <v>29</v>
       </c>
@@ -1366,7 +1358,7 @@
         <v>22.4</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B26" s="20"/>
       <c r="C26" s="21">
         <v>1</v>
@@ -1405,7 +1397,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B27" s="21" t="s">
         <v>30</v>
       </c>
@@ -1449,7 +1441,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B28" s="21" t="s">
         <v>32</v>
       </c>
@@ -1493,7 +1485,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B29" s="21" t="s">
         <v>33</v>
       </c>
@@ -1537,7 +1529,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B30" s="21" t="s">
         <v>34</v>
       </c>
@@ -1581,7 +1573,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B31" s="21" t="s">
         <v>35</v>
       </c>
@@ -1625,7 +1617,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B32" s="21" t="s">
         <v>36</v>
       </c>
@@ -1669,7 +1661,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B33" s="21" t="s">
         <v>37</v>
       </c>
@@ -1713,7 +1705,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B34" s="21" t="s">
         <v>38</v>
       </c>
@@ -1771,14 +1763,14 @@
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" style="15" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" style="15" customWidth="1"/>
-    <col min="3" max="16384" width="9.109375" style="15"/>
+    <col min="1" max="1" width="20.7109375" style="15" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" style="15" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
@@ -1786,7 +1778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>2</v>
       </c>
@@ -1794,7 +1786,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
@@ -1802,7 +1794,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>6</v>
       </c>
@@ -1810,7 +1802,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
         <v>8</v>
       </c>
@@ -1818,7 +1810,7 @@
         <v>44112</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
         <v>9</v>
       </c>
@@ -1826,7 +1818,7 @@
         <v>0.51443287037037033</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
         <v>10</v>
       </c>
@@ -1834,7 +1826,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
         <v>12</v>
       </c>
@@ -1842,7 +1834,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
         <v>14</v>
       </c>
@@ -1850,13 +1842,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="19"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
         <v>17</v>
       </c>
@@ -1864,7 +1856,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
         <v>19</v>
       </c>
@@ -1872,12 +1864,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
         <v>22</v>
       </c>
@@ -1885,33 +1877,33 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B18" s="15" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B19" s="15" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B20" s="15" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B21" s="15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="18" t="s">
         <v>28</v>
       </c>
       <c r="B23" s="19"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="15" t="s">
         <v>29</v>
       </c>
@@ -1919,7 +1911,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B26" s="20"/>
       <c r="C26" s="21">
         <v>1</v>
@@ -1958,7 +1950,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B27" s="21" t="s">
         <v>30</v>
       </c>
@@ -2002,7 +1994,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B28" s="21" t="s">
         <v>32</v>
       </c>
@@ -2046,7 +2038,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B29" s="21" t="s">
         <v>33</v>
       </c>
@@ -2090,7 +2082,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B30" s="21" t="s">
         <v>34</v>
       </c>
@@ -2134,7 +2126,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B31" s="21" t="s">
         <v>35</v>
       </c>
@@ -2178,7 +2170,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B32" s="21" t="s">
         <v>36</v>
       </c>
@@ -2222,7 +2214,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B33" s="21" t="s">
         <v>37</v>
       </c>
@@ -2266,7 +2258,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B34" s="21" t="s">
         <v>38</v>
       </c>
@@ -2324,14 +2316,14 @@
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" style="15" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" style="15" customWidth="1"/>
-    <col min="3" max="16384" width="9.109375" style="15"/>
+    <col min="1" max="1" width="20.7109375" style="15" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" style="15" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
@@ -2339,7 +2331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>2</v>
       </c>
@@ -2347,7 +2339,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
@@ -2355,7 +2347,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>6</v>
       </c>
@@ -2363,7 +2355,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
         <v>8</v>
       </c>
@@ -2371,7 +2363,7 @@
         <v>44112</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
         <v>9</v>
       </c>
@@ -2379,7 +2371,7 @@
         <v>0.68363425925925936</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
         <v>10</v>
       </c>
@@ -2387,7 +2379,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
         <v>12</v>
       </c>
@@ -2395,7 +2387,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
         <v>14</v>
       </c>
@@ -2403,13 +2395,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="19"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
         <v>17</v>
       </c>
@@ -2417,7 +2409,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
         <v>19</v>
       </c>
@@ -2425,12 +2417,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
         <v>22</v>
       </c>
@@ -2438,33 +2430,33 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B18" s="15" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B19" s="15" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B20" s="15" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B21" s="15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="18" t="s">
         <v>28</v>
       </c>
       <c r="B23" s="19"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="15" t="s">
         <v>29</v>
       </c>
@@ -2472,7 +2464,7 @@
         <v>23.3</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B26" s="20"/>
       <c r="C26" s="21">
         <v>1</v>
@@ -2511,7 +2503,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B27" s="21" t="s">
         <v>30</v>
       </c>
@@ -2555,7 +2547,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B28" s="21" t="s">
         <v>32</v>
       </c>
@@ -2599,7 +2591,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B29" s="21" t="s">
         <v>33</v>
       </c>
@@ -2643,7 +2635,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B30" s="21" t="s">
         <v>34</v>
       </c>
@@ -2687,7 +2679,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B31" s="21" t="s">
         <v>35</v>
       </c>
@@ -2731,7 +2723,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B32" s="21" t="s">
         <v>36</v>
       </c>
@@ -2775,7 +2767,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B33" s="21" t="s">
         <v>37</v>
       </c>
@@ -2819,7 +2811,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B34" s="21" t="s">
         <v>38</v>
       </c>
@@ -2877,14 +2869,14 @@
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" style="15" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" style="15" customWidth="1"/>
-    <col min="3" max="16384" width="9.109375" style="15"/>
+    <col min="1" max="1" width="20.7109375" style="15" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" style="15" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
@@ -2892,7 +2884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>2</v>
       </c>
@@ -2900,7 +2892,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
@@ -2908,7 +2900,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>6</v>
       </c>
@@ -2916,7 +2908,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
         <v>8</v>
       </c>
@@ -2924,7 +2916,7 @@
         <v>44112</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
         <v>9</v>
       </c>
@@ -2932,7 +2924,7 @@
         <v>0.68461805555555555</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
         <v>10</v>
       </c>
@@ -2940,7 +2932,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
         <v>12</v>
       </c>
@@ -2948,7 +2940,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
         <v>14</v>
       </c>
@@ -2956,13 +2948,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="19"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
         <v>17</v>
       </c>
@@ -2970,7 +2962,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
         <v>19</v>
       </c>
@@ -2978,12 +2970,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
         <v>22</v>
       </c>
@@ -2991,33 +2983,33 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B18" s="15" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B19" s="15" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B20" s="15" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B21" s="15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="18" t="s">
         <v>28</v>
       </c>
       <c r="B23" s="19"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="15" t="s">
         <v>29</v>
       </c>
@@ -3025,7 +3017,7 @@
         <v>23.4</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B26" s="20"/>
       <c r="C26" s="21">
         <v>1</v>
@@ -3064,7 +3056,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B27" s="21" t="s">
         <v>30</v>
       </c>
@@ -3108,7 +3100,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B28" s="21" t="s">
         <v>32</v>
       </c>
@@ -3152,7 +3144,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B29" s="21" t="s">
         <v>33</v>
       </c>
@@ -3196,7 +3188,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B30" s="21" t="s">
         <v>34</v>
       </c>
@@ -3240,7 +3232,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B31" s="21" t="s">
         <v>35</v>
       </c>
@@ -3284,7 +3276,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B32" s="21" t="s">
         <v>36</v>
       </c>
@@ -3328,7 +3320,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B33" s="21" t="s">
         <v>37</v>
       </c>
@@ -3372,7 +3364,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B34" s="21" t="s">
         <v>38</v>
       </c>
@@ -3430,14 +3422,14 @@
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" style="15" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" style="15" customWidth="1"/>
-    <col min="3" max="16384" width="9.109375" style="15"/>
+    <col min="1" max="1" width="20.7109375" style="15" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" style="15" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
@@ -3445,7 +3437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>2</v>
       </c>
@@ -3453,7 +3445,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
@@ -3461,7 +3453,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>6</v>
       </c>
@@ -3469,7 +3461,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
         <v>8</v>
       </c>
@@ -3477,7 +3469,7 @@
         <v>44112</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
         <v>9</v>
       </c>
@@ -3485,7 +3477,7 @@
         <v>0.68574074074074076</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
         <v>10</v>
       </c>
@@ -3493,7 +3485,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
         <v>12</v>
       </c>
@@ -3501,7 +3493,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
         <v>14</v>
       </c>
@@ -3509,13 +3501,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="19"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
         <v>17</v>
       </c>
@@ -3523,7 +3515,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
         <v>19</v>
       </c>
@@ -3531,12 +3523,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
         <v>22</v>
       </c>
@@ -3544,33 +3536,33 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B18" s="15" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B19" s="15" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B20" s="15" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B21" s="15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="18" t="s">
         <v>28</v>
       </c>
       <c r="B23" s="19"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="15" t="s">
         <v>29</v>
       </c>
@@ -3578,7 +3570,7 @@
         <v>23.4</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B26" s="20"/>
       <c r="C26" s="21">
         <v>1</v>
@@ -3617,7 +3609,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B27" s="21" t="s">
         <v>30</v>
       </c>
@@ -3661,7 +3653,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B28" s="21" t="s">
         <v>32</v>
       </c>
@@ -3705,7 +3697,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B29" s="21" t="s">
         <v>33</v>
       </c>
@@ -3749,7 +3741,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B30" s="21" t="s">
         <v>34</v>
       </c>
@@ -3793,7 +3785,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B31" s="21" t="s">
         <v>35</v>
       </c>
@@ -3837,7 +3829,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B32" s="21" t="s">
         <v>36</v>
       </c>
@@ -3881,7 +3873,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B33" s="21" t="s">
         <v>37</v>
       </c>
@@ -3925,7 +3917,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B34" s="21" t="s">
         <v>38</v>
       </c>
@@ -3979,18 +3971,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A2:O34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" style="15" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" style="15" customWidth="1"/>
-    <col min="3" max="16384" width="9.109375" style="15"/>
+    <col min="1" max="1" width="20.7109375" style="15" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" style="15" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
@@ -3998,7 +3990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>2</v>
       </c>
@@ -4006,7 +3998,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
@@ -4014,7 +4006,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>6</v>
       </c>
@@ -4022,7 +4014,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
         <v>8</v>
       </c>
@@ -4030,7 +4022,7 @@
         <v>44112</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
         <v>9</v>
       </c>
@@ -4038,7 +4030,7 @@
         <v>0.68671296296296302</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
         <v>10</v>
       </c>
@@ -4046,7 +4038,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
         <v>12</v>
       </c>
@@ -4054,7 +4046,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
         <v>14</v>
       </c>
@@ -4062,13 +4054,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="19"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
         <v>17</v>
       </c>
@@ -4076,7 +4068,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
         <v>19</v>
       </c>
@@ -4084,12 +4076,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
         <v>22</v>
       </c>
@@ -4097,33 +4089,33 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B18" s="15" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B19" s="15" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B20" s="15" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B21" s="15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="18" t="s">
         <v>28</v>
       </c>
       <c r="B23" s="19"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="15" t="s">
         <v>29</v>
       </c>
@@ -4131,7 +4123,7 @@
         <v>23.5</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B26" s="20"/>
       <c r="C26" s="21">
         <v>1</v>
@@ -4170,7 +4162,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B27" s="21" t="s">
         <v>30</v>
       </c>
@@ -4214,7 +4206,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B28" s="21" t="s">
         <v>32</v>
       </c>
@@ -4258,7 +4250,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B29" s="21" t="s">
         <v>33</v>
       </c>
@@ -4302,7 +4294,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B30" s="21" t="s">
         <v>34</v>
       </c>
@@ -4346,7 +4338,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B31" s="21" t="s">
         <v>35</v>
       </c>
@@ -4390,7 +4382,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B32" s="21" t="s">
         <v>36</v>
       </c>
@@ -4434,7 +4426,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B33" s="21" t="s">
         <v>37</v>
       </c>
@@ -4478,7 +4470,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B34" s="21" t="s">
         <v>38</v>
       </c>
@@ -4526,35 +4518,4 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D82ADAD-2FF5-4712-88D5-76E37F9CE197}">
-  <dimension ref="A1:A3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="37">
-        <v>0.4694444444444445</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
 </file>